--- a/BackTest/2020-01-24 BackTest ETH.xlsx
+++ b/BackTest/2020-01-24 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>779.1274115820892</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>779.2570115820891</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>779.0944115820892</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>769.5611115820892</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>837.8735854724289</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>837.8735854724289</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>837.7325854724289</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>800.677585472429</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>856.765885472429</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>922.678385472429</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>922.678385472429</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>962.678385472429</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>962.155885472429</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>923.874085472429</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>930.177385472429</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>997.8117854724291</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>988.7749854724291</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>990.4919854724291</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>988.742685472429</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>988.868585472429</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>987.959185472429</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1000.159085472429</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1001.588885472429</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>986.9782854724289</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>984.8239854724288</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>984.3226854724288</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>990.0351854724288</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>992.2092854724287</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1129.009285472429</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1133.531765326671</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1063.531765326671</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1064.674565326671</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1060.674565326671</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1062.147167877426</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1057.309267877426</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1001.167667877426</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1088.197767877426</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1092.448767877426</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1078.315467877426</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1101.428767877426</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1071.131067877426</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1001.610154498977</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1001.409754498977</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1001.350454498977</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>988.7147544989772</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>978.4714544989772</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>982.3781544989772</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>999.2231544989772</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>995.2595544989772</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>973.6245544989772</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>949.0582544989772</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>948.9346544989772</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>954.9346544989772</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>957.9483544989772</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>971.2410544989772</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>952.4550544989772</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>940.2289544989773</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>928.2934544989772</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>928.5434544989772</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>919.5825544989772</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>920.9204544989772</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>920.7604544989772</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>943.2882694080681</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>943.6421694080681</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>969.635269408068</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>867.3425101989109</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>755.4345101989109</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>761.5890075485396</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>761.3790075485396</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>761.4750075485396</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>727.1576075485395</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>777.1423075485396</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>776.5732075485396</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>778.2762075485396</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>779.8962075485396</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>762.0907075485396</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>762.1028075485397</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>755.8567075485397</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>827.31829410098</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>820.19809410098</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>888.08219410098</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>845.2930941009801</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>846.57849410098</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>845.28499410098</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>861.4686941009801</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>848.62659410098</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>838.4343941009801</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>838.58439410098</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>820.2364941009801</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>829.3129941009801</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>759.83849410098</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>730.9908941009801</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>733.1050941009801</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>570.49469410098</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>599.6896941009801</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>568.1847941009801</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>435.5839941009801</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>252.2142941009801</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>275.1587385454246</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>270.5798352051323</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>270.5798352051323</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>270.2534352051323</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>223.7688352051323</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>243.7688352051323</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>204.9247352051323</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>205.2260352051323</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>189.2497352051323</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>189.2497352051323</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>207.2903352051323</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>207.2903352051323</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>192.8881352051323</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>264.7353352051323</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>275.1568352051323</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>275.1568352051323</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>266.0215352051323</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>266.0215352051323</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>306.8931352051323</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>303.0275352051323</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>303.0275352051323</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>309.3192352051323</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>314.4634234896511</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>304.8329234896511</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>289.4748234896512</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>294.0263234896511</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>294.0263234896511</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>321.9598234896511</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>321.9598234896511</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>129.0401234896511</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>129.6786234896511</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>129.6786234896511</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>174.4053234896511</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>174.4053234896511</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>173.5169234896511</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>173.7058234896511</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>225.0058234896511</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>224.6653234896511</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>237.2420234896511</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>187.2259208759554</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>187.2259208759554</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>189.5757208759553</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>141.4070208759553</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>141.4070208759553</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>111.1928208759553</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>92.53592087595533</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>122.3772208759553</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>122.3772208759553</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>121.6893208759553</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-59.04507912404466</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-704.4446791240446</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-827.3856951269968</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-822.7527951269968</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-822.1667021000554</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-534.4318021000554</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-1503.867354419122</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-1502.253154419122</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-1340.241054419122</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-1361.322854419122</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-1382.138654419122</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-1378.613254419122</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-1407.258399758105</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-1395.813199758105</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-1487.709299758105</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-1492.709199758105</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-1788.576035426895</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-1750.626135426895</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-1824.864935426895</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-1649.049135426895</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-1647.769435426894</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-1774.834935426894</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-1719.636935426894</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-1680.760435426894</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-1680.821535426894</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30217,10 +30217,14 @@
         <v>-2874.632419743815</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>187300</v>
+      </c>
+      <c r="J904" t="n">
+        <v>187300</v>
+      </c>
       <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
@@ -30250,11 +30254,19 @@
         <v>-2889.312519743815</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>187600</v>
+      </c>
+      <c r="J905" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30286,8 +30298,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +30334,19 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>187300</v>
+      </c>
+      <c r="J907" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +30375,19 @@
         <v>-2890.675519743815</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>187300</v>
+      </c>
+      <c r="J908" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30382,11 +30416,19 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J909" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +30457,19 @@
         <v>-2926.205319743814</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J910" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +30498,19 @@
         <v>-2723.222719743815</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J911" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30484,8 +30542,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30517,8 +30581,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30550,8 +30620,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30583,8 +30659,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30616,8 +30698,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30649,8 +30737,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30682,8 +30776,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30715,8 +30815,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30748,8 +30854,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30781,8 +30893,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30814,8 +30932,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30847,8 +30971,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30880,8 +31010,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30913,8 +31049,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30946,8 +31088,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30979,8 +31127,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31012,8 +31166,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31045,8 +31205,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31078,8 +31244,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31111,8 +31283,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31144,8 +31322,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31177,8 +31361,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31210,8 +31400,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31243,8 +31439,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31276,8 +31478,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31309,8 +31517,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31342,8 +31556,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31375,8 +31595,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31408,8 +31634,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31441,8 +31673,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31474,8 +31712,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31507,8 +31751,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31540,8 +31790,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31573,8 +31829,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31606,8 +31868,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31639,8 +31907,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31672,8 +31946,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31705,8 +31985,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31738,8 +32024,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31771,8 +32063,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31804,8 +32102,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31837,8 +32141,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31870,8 +32180,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31903,8 +32219,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31936,8 +32258,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31969,8 +32297,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32002,8 +32336,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32035,8 +32375,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32068,8 +32414,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32101,8 +32453,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32134,8 +32492,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32164,11 +32528,19 @@
         <v>-2727.801789695837</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J963" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32200,8 +32572,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +32608,19 @@
         <v>-2725.305795043431</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J965" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32263,11 +32649,19 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J966" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +32690,19 @@
         <v>-2720.165695043431</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J967" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32329,11 +32731,19 @@
         <v>-2717.476795043431</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J968" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32365,8 +32775,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32395,11 +32811,19 @@
         <v>-2739.726395043431</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>187200</v>
+      </c>
+      <c r="J970" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32428,11 +32852,19 @@
         <v>-2819.401995043431</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>186900</v>
+      </c>
+      <c r="J971" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +32893,19 @@
         <v>-2806.517395043431</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>186500</v>
+      </c>
+      <c r="J972" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32494,11 +32934,19 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J973" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32527,11 +32975,19 @@
         <v>-2716.026595043431</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>186800</v>
+      </c>
+      <c r="J974" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32560,11 +33016,19 @@
         <v>-2657.773795043431</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>186800</v>
+      </c>
+      <c r="J975" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32593,11 +33057,19 @@
         <v>-2653.857395043431</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J976" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32626,11 +33098,19 @@
         <v>-2387.056995043431</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J977" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32662,8 +33142,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32695,8 +33181,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32728,8 +33220,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32761,8 +33259,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32791,11 +33295,19 @@
         <v>-2400.730093972767</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J982" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32824,11 +33336,19 @@
         <v>-2348.36289504343</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>186800</v>
+      </c>
+      <c r="J983" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32857,11 +33377,19 @@
         <v>-2348.36289504343</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J984" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32890,11 +33418,19 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J985" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32923,11 +33459,19 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J986" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +33500,19 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J987" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +33541,19 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J988" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33022,11 +33582,19 @@
         <v>-2391.027795043431</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>187000</v>
+      </c>
+      <c r="J989" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +33623,19 @@
         <v>-2383.338895043431</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>186800</v>
+      </c>
+      <c r="J990" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +33664,19 @@
         <v>-2376.457395043431</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>186900</v>
+      </c>
+      <c r="J991" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +33705,19 @@
         <v>-2484.676695043431</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>187100</v>
+      </c>
+      <c r="J992" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33154,11 +33746,19 @@
         <v>-2482.001195043431</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J993" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33190,8 +33790,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33220,11 +33826,19 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J995" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33253,11 +33867,19 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J996" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33286,11 +33908,19 @@
         <v>-2493.336495043431</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J997" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33319,11 +33949,19 @@
         <v>-2460.134895043431</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J998" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33352,11 +33990,19 @@
         <v>-2591.789295043431</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J999" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33385,11 +34031,19 @@
         <v>-2506.005595043431</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>186300</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33418,11 +34072,19 @@
         <v>-2506.005595043431</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>186400</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +34113,19 @@
         <v>-2502.010895043431</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>186400</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33484,11 +34154,19 @@
         <v>-2449.278895043431</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +34195,19 @@
         <v>-2449.278895043431</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,11 +34236,19 @@
         <v>-2505.590895043431</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>186700</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33583,11 +34277,19 @@
         <v>-2473.925495043431</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33616,11 +34318,19 @@
         <v>-2540.962195043431</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>186600</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33649,11 +34359,19 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>186200</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33682,11 +34400,19 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>186500</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>187300</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33715,15 +34441,17 @@
         <v>-2494.491695043431</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1010" t="n">
         <v>186500</v>
       </c>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1010" t="n">
@@ -33754,12 +34482,14 @@
         <v>-2547.135695043431</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1011" t="n">
         <v>186600</v>
       </c>
-      <c r="J1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33793,12 +34523,14 @@
         <v>-2547.135695043431</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1012" t="n">
         <v>186100</v>
       </c>
-      <c r="J1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33832,12 +34564,14 @@
         <v>-2534.853095043431</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1013" t="n">
         <v>186100</v>
       </c>
-      <c r="J1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33871,12 +34605,14 @@
         <v>-2509.724595043431</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1014" t="n">
         <v>186600</v>
       </c>
-      <c r="J1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33910,12 +34646,14 @@
         <v>-2513.225695043431</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1015" t="n">
         <v>186800</v>
       </c>
-      <c r="J1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33949,12 +34687,14 @@
         <v>-2525.209895043431</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1016" t="n">
         <v>186700</v>
       </c>
-      <c r="J1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33988,12 +34728,14 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1017" t="n">
         <v>186500</v>
       </c>
-      <c r="J1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34027,12 +34769,14 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1018" t="n">
         <v>186800</v>
       </c>
-      <c r="J1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34066,12 +34810,14 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="n">
         <v>186800</v>
       </c>
-      <c r="J1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>187300</v>
+      </c>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34083,6 +34829,6 @@
       <c r="M1019" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ETH.xlsx
+++ b/BackTest/2020-01-24 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>779.1274115820892</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>779.2570115820891</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>779.0944115820892</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>769.5611115820892</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>800.677585472429</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>856.765885472429</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>922.678385472429</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>922.678385472429</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>962.678385472429</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>962.155885472429</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>923.874085472429</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>930.177385472429</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>997.8117854724291</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>988.7749854724291</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>989.493885472429</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>988.9782854724289</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>986.9782854724289</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>987.7741854724288</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>986.9311854724289</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>984.8239854724288</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>984.3126854724288</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1092.448767877426</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1092.655767877426</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1090.271267877426</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1078.315467877426</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1080.544567877426</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1101.428767877426</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>978.4714544989772</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>977.9934544989773</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>982.3781544989772</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>999.2231544989772</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>995.2595544989772</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>973.6245544989772</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>977.8728544989772</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>983.7857544989772</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>920.7604544989772</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>943.3408694080681</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>761.5890075485396</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>731.4433075485396</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>727.1576075485395</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>771.7851075485396</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>777.1423075485396</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>776.5732075485396</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>778.2762075485396</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>777.7572075485396</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>779.8962075485396</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>742.6992075485396</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>744.2204075485396</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>846.57849410098</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>845.28499410098</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>864.2640941009801</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>863.28919410098</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>860.58329410098</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>848.62659410098</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>838.4343941009801</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>838.58439410098</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>820.2364941009801</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>829.3129941009801</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>759.83849410098</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>730.9908941009801</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>733.1050941009801</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>570.49469410098</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>599.6896941009801</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>568.1847941009801</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>435.5839941009801</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>252.2142941009801</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>275.1587385454246</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>270.5798352051323</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>270.5798352051323</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>270.2534352051323</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>223.7688352051323</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>243.7688352051323</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>204.9247352051323</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>205.2260352051323</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>189.2497352051323</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>189.2497352051323</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>207.2903352051323</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>207.2903352051323</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>192.8881352051323</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>264.7353352051323</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>275.1568352051323</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>275.1568352051323</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>266.0215352051323</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>266.0215352051323</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>321.9598234896511</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>129.0401234896511</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>129.6786234896511</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>129.6786234896511</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>174.4053234896511</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>174.4053234896511</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>180.1548234896511</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>173.5169234896511</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>173.7058234896511</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>225.0058234896511</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>224.6653234896511</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>237.2420234896511</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>204.4609208759553</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>187.2259208759554</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>187.2259208759554</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>189.5757208759553</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>184.9548208759553</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>141.4070208759553</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>141.4070208759553</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>111.1928208759553</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>110.4397208759553</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>92.53592087595533</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>122.3772208759553</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>122.3772208759553</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>121.6893208759553</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-47.47567912404466</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-59.04507912404466</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-704.4446791240446</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-434.0839856058619</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-432.2695306295586</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-435.1355306295586</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-429.2848288391426</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-405.8533288391426</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-405.8571288391426</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-389.0390183128268</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-405.1193183128268</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-345.7545183128268</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-435.0428723412628</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-432.2380723412628</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-431.8018723412628</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-431.8892723412628</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-431.7133723412628</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-441.7675723412628</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-436.9245723412628</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-435.1649723412628</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-460.1362723412628</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-456.7022723412628</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-458.2799723412627</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-1279.573351590257</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-1267.587951590257</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-1273.552451590257</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-1272.568351590257</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-1307.451051590257</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-1292.571751590257</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-1286.786490100558</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-1160.1901365839</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-1188.1620365839</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-1186.4461154739</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-1190.3961154739</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-1209.4599154739</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-1207.4599154739</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-1215.7729154739</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-1218.2437154739</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1207.0311154739</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-1202.7818154739</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-1228.8593154739</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-1174.6246154739</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-1156.7669154739</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-1182.8445154739</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-1184.3872154739</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-1195.3570154739</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-1188.4332040935</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-1111.7837040935</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-1096.231137584811</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-1113.097612018126</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-1225.789789836883</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-1148.893889836883</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-1112.614289836883</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-1092.630054419122</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-1153.130054419122</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-1193.099554419121</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-1262.041754419121</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-1414.279654419121</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-1385.711654419121</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-1404.698554419122</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -30254,11 +30254,9 @@
         <v>-2889.312519743815</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>187600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
         <v>187300</v>
       </c>
@@ -30295,9 +30293,11 @@
         <v>-2890.251619743815</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>187400</v>
+      </c>
       <c r="J906" t="n">
         <v>187300</v>
       </c>
@@ -30498,11 +30498,9 @@
         <v>-2723.222719743815</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>187000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
         <v>187300</v>
       </c>
@@ -32528,11 +32526,9 @@
         <v>-2727.801789695837</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>187100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
         <v>187300</v>
       </c>
@@ -32772,9 +32768,11 @@
         <v>-2720.956095043431</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>187300</v>
+      </c>
       <c r="J969" t="n">
         <v>187300</v>
       </c>
@@ -33295,11 +33293,9 @@
         <v>-2400.730093972767</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>186700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
         <v>187300</v>
       </c>
@@ -33377,11 +33373,9 @@
         <v>-2348.36289504343</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>187100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
         <v>187300</v>
       </c>
@@ -33418,11 +33412,9 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>187100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="n">
         <v>187300</v>
       </c>
@@ -33459,11 +33451,9 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>187000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
         <v>187300</v>
       </c>
@@ -33500,11 +33490,9 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>187000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
         <v>187300</v>
       </c>
@@ -33541,11 +33529,9 @@
         <v>-2368.022795043431</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>187000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
         <v>187300</v>
       </c>
@@ -33582,11 +33568,9 @@
         <v>-2391.027795043431</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>187000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
         <v>187300</v>
       </c>
@@ -33623,11 +33607,9 @@
         <v>-2383.338895043431</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>186800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
         <v>187300</v>
       </c>
@@ -33664,11 +33646,9 @@
         <v>-2376.457395043431</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>186900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
         <v>187300</v>
       </c>
@@ -33705,11 +33685,9 @@
         <v>-2484.676695043431</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>187100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
         <v>187300</v>
       </c>
@@ -33746,11 +33724,9 @@
         <v>-2482.001195043431</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>186700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
         <v>187300</v>
       </c>
@@ -34031,11 +34007,9 @@
         <v>-2506.005595043431</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>186300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
         <v>187300</v>
       </c>
@@ -34072,11 +34046,9 @@
         <v>-2506.005595043431</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>186400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
         <v>187300</v>
       </c>
@@ -34195,11 +34167,9 @@
         <v>-2449.278895043431</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>186700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="n">
         <v>187300</v>
       </c>
@@ -34236,11 +34206,9 @@
         <v>-2505.590895043431</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>186700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
         <v>187300</v>
       </c>
@@ -34359,11 +34327,9 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>186200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
         <v>187300</v>
       </c>
@@ -34400,11 +34366,9 @@
         <v>-2535.962195043431</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>186500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
         <v>187300</v>
       </c>
@@ -34605,11 +34569,9 @@
         <v>-2509.724595043431</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>186600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
         <v>187300</v>
       </c>
@@ -34646,11 +34608,9 @@
         <v>-2513.225695043431</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>186800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
         <v>187300</v>
       </c>
@@ -34687,11 +34647,9 @@
         <v>-2525.209895043431</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>186700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
         <v>187300</v>
       </c>
@@ -34728,11 +34686,9 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>186500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
         <v>187300</v>
       </c>
@@ -34769,11 +34725,9 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>186800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
         <v>187300</v>
       </c>
@@ -34810,11 +34764,9 @@
         <v>-2507.447495043431</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>186800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
         <v>187300</v>
       </c>
@@ -34829,6 +34781,6 @@
       <c r="M1019" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>